--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Operation Test" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$Y$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -195,6 +195,9 @@
     <t>Hiển thị được kết quả đăng kí tài khoản, đăng nhập tài khoản đó thành công</t>
   </si>
   <si>
+    <t>Hoang</t>
+  </si>
+  <si>
     <t>1.2-1</t>
   </si>
   <si>
@@ -213,6 +216,24 @@
     <t>2.2-1</t>
   </si>
   <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Chức năng của khách sạn</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>3.1-1</t>
+  </si>
+  <si>
+    <t>3.2-1</t>
+  </si>
+  <si>
     <t>Phần mềm đặt khách sạn</t>
   </si>
   <si>
@@ -262,6 +283,18 @@
   </si>
   <si>
     <t>1. Phần mềm hiển thị con đường ngắn nhất để đến bãi đỗ xe</t>
+  </si>
+  <si>
+    <t>Đăng nhập 2</t>
+  </si>
+  <si>
+    <t>1. Khách hàng đăng nhập thông tin đúng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Khách hàng nhập sai thông tin </t>
+  </si>
+  <si>
+    <t>Đăng nhập thất bại</t>
   </si>
 </sst>
 </file>
@@ -754,7 +787,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1047,6 +1080,12 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,7 +1149,13 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1652,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F9" s="75"/>
       <c r="G9" s="28"/>
@@ -2470,10 +2515,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:K82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2490,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -2549,7 +2594,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="99">
-        <f>COUNTIF(H2:H785,"Untested")</f>
+        <f>COUNTIF(H2:H798,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="86" t="s">
@@ -2648,22 +2693,22 @@
       <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="128" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="140" t="s">
+      <c r="E9" s="131"/>
+      <c r="F9" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="126" t="s">
+      <c r="G9" s="143"/>
+      <c r="H9" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="127"/>
+      <c r="I9" s="129"/>
       <c r="J9" s="48"/>
       <c r="K9" s="122"/>
     </row>
@@ -2671,12 +2716,12 @@
       <c r="A10" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="115" t="s">
         <v>42</v>
       </c>
@@ -2692,14 +2737,14 @@
       <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
@@ -2709,12 +2754,12 @@
       <c r="A12" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="115" t="s">
         <v>47</v>
       </c>
@@ -2728,12 +2773,12 @@
       <c r="A13" s="51">
         <v>111</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="52">
         <v>43389</v>
       </c>
@@ -2745,22 +2790,22 @@
       <c r="A14" s="48">
         <v>2</v>
       </c>
-      <c r="B14" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="128" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="126" t="s">
+      <c r="B14" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="137"/>
+      <c r="D14" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="131"/>
+      <c r="F14" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="143"/>
+      <c r="H14" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="127"/>
+      <c r="I14" s="129"/>
       <c r="J14" s="48"/>
       <c r="K14" s="122"/>
     </row>
@@ -2768,12 +2813,12 @@
       <c r="A15" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="115" t="s">
         <v>42</v>
       </c>
@@ -2787,16 +2832,16 @@
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="48"/>
@@ -2806,12 +2851,12 @@
       <c r="A17" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="136"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="115" t="s">
         <v>47</v>
       </c>
@@ -2825,12 +2870,12 @@
       <c r="A18" s="51">
         <v>121</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="52">
         <v>43389</v>
       </c>
@@ -2854,10 +2899,10 @@
         <v>36</v>
       </c>
       <c r="G19" s="121"/>
-      <c r="H19" s="125" t="s">
+      <c r="H19" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="125"/>
+      <c r="I19" s="127"/>
       <c r="J19" s="116" t="s">
         <v>38</v>
       </c>
@@ -2869,22 +2914,22 @@
       <c r="A20" s="48">
         <v>3</v>
       </c>
-      <c r="B20" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="126" t="s">
+      <c r="B20" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="137"/>
+      <c r="D20" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="131"/>
+      <c r="F20" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="143"/>
+      <c r="H20" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="129"/>
       <c r="J20" s="48"/>
       <c r="K20" s="122"/>
     </row>
@@ -2892,12 +2937,12 @@
       <c r="A21" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="143"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
       <c r="H21" s="115" t="s">
         <v>42</v>
       </c>
@@ -2911,16 +2956,16 @@
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
       <c r="A22" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="143"/>
+        <v>56</v>
+      </c>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="48"/>
@@ -2930,12 +2975,12 @@
       <c r="A23" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
       <c r="H23" s="115" t="s">
         <v>47</v>
       </c>
@@ -2949,12 +2994,12 @@
       <c r="A24" s="51">
         <v>131</v>
       </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="52">
         <v>43389</v>
       </c>
@@ -2978,10 +3023,10 @@
         <v>36</v>
       </c>
       <c r="G25" s="121"/>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="116" t="s">
         <v>38</v>
       </c>
@@ -2993,22 +3038,22 @@
       <c r="A26" s="48">
         <v>4</v>
       </c>
-      <c r="B26" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="140" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="126" t="s">
+      <c r="B26" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="137"/>
+      <c r="D26" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="131"/>
+      <c r="F26" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="143"/>
+      <c r="H26" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="129"/>
       <c r="J26" s="48"/>
       <c r="K26" s="122"/>
     </row>
@@ -3016,12 +3061,12 @@
       <c r="A27" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="143"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="115" t="s">
         <v>42</v>
       </c>
@@ -3035,16 +3080,16 @@
     </row>
     <row r="28" spans="1:11" ht="10.5" customHeight="1">
       <c r="A28" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="143"/>
+        <v>57</v>
+      </c>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="48"/>
@@ -3054,12 +3099,12 @@
       <c r="A29" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="115" t="s">
         <v>47</v>
       </c>
@@ -3073,12 +3118,12 @@
       <c r="A30" s="51">
         <v>141</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="52">
         <v>43389</v>
       </c>
@@ -3090,18 +3135,18 @@
       <c r="A31" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
+      <c r="B31" s="148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
     </row>
     <row r="32" spans="1:11" ht="10.5" customHeight="1">
       <c r="A32" s="115" t="s">
@@ -3119,10 +3164,10 @@
         <v>36</v>
       </c>
       <c r="G32" s="121"/>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="125"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="116" t="s">
         <v>38</v>
       </c>
@@ -3134,22 +3179,22 @@
       <c r="A33" s="48">
         <v>5</v>
       </c>
-      <c r="B33" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="141"/>
-      <c r="H33" s="126" t="s">
+      <c r="B33" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="137"/>
+      <c r="D33" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="131"/>
+      <c r="F33" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="143"/>
+      <c r="H33" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="127"/>
+      <c r="I33" s="129"/>
       <c r="J33" s="48"/>
       <c r="K33" s="122"/>
     </row>
@@ -3157,12 +3202,12 @@
       <c r="A34" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="143"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="115" t="s">
         <v>42</v>
       </c>
@@ -3176,16 +3221,16 @@
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="136"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
+        <v>59</v>
+      </c>
+      <c r="B35" s="138"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
       <c r="H35" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="48"/>
@@ -3195,12 +3240,12 @@
       <c r="A36" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="143"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
       <c r="H36" s="115" t="s">
         <v>47</v>
       </c>
@@ -3214,12 +3259,12 @@
       <c r="A37" s="51">
         <v>211</v>
       </c>
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="147"/>
       <c r="H37" s="52">
         <v>43389</v>
       </c>
@@ -3243,10 +3288,10 @@
         <v>36</v>
       </c>
       <c r="G38" s="121"/>
-      <c r="H38" s="125" t="s">
+      <c r="H38" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="125"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="116" t="s">
         <v>38</v>
       </c>
@@ -3258,22 +3303,22 @@
       <c r="A39" s="48">
         <v>6</v>
       </c>
-      <c r="B39" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="140" t="s">
+      <c r="B39" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="137"/>
+      <c r="D39" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="131"/>
+      <c r="F39" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="141"/>
-      <c r="H39" s="126" t="s">
+      <c r="G39" s="143"/>
+      <c r="H39" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="127"/>
+      <c r="I39" s="129"/>
       <c r="J39" s="48"/>
       <c r="K39" s="122"/>
     </row>
@@ -3281,12 +3326,12 @@
       <c r="A40" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="143"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="145"/>
       <c r="H40" s="115" t="s">
         <v>42</v>
       </c>
@@ -3300,16 +3345,16 @@
     </row>
     <row r="41" spans="1:11" s="55" customFormat="1">
       <c r="A41" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="143"/>
+        <v>60</v>
+      </c>
+      <c r="B41" s="138"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="145"/>
       <c r="H41" s="50" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="48"/>
@@ -3319,12 +3364,12 @@
       <c r="A42" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="143"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="145"/>
       <c r="H42" s="115" t="s">
         <v>47</v>
       </c>
@@ -3338,12 +3383,12 @@
       <c r="A43" s="51">
         <v>211</v>
       </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="145"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="147"/>
       <c r="H43" s="52">
         <v>43389</v>
       </c>
@@ -3351,99 +3396,383 @@
       <c r="J43" s="53"/>
       <c r="K43" s="124"/>
     </row>
-    <row r="44" spans="1:11" s="55" customFormat="1">
-      <c r="A44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
+    <row r="44" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A44" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
+      <c r="K44" s="150"/>
     </row>
     <row r="45" spans="1:11" s="55" customFormat="1">
-      <c r="A45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-    </row>
-    <row r="46" spans="1:11" s="55" customFormat="1">
-      <c r="A46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
+      <c r="A45" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="121"/>
+      <c r="D45" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="121"/>
+      <c r="F45" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="121"/>
+      <c r="H45" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" s="121"/>
+      <c r="J45" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A46" s="48">
+        <v>7</v>
+      </c>
+      <c r="B46" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="137"/>
+      <c r="D46" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="131"/>
+      <c r="F46" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="143"/>
+      <c r="H46" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="129"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="122"/>
     </row>
     <row r="47" spans="1:11" s="55" customFormat="1">
-      <c r="A47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
+      <c r="A47" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="123"/>
     </row>
     <row r="48" spans="1:11" s="55" customFormat="1">
-      <c r="A48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
+      <c r="A48" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="138"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="50"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="123"/>
     </row>
     <row r="49" spans="1:11" s="55" customFormat="1">
-      <c r="A49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="A49" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="115"/>
+      <c r="K49" s="123"/>
     </row>
     <row r="50" spans="1:11" s="55" customFormat="1">
-      <c r="A50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="A50" s="51">
+        <v>311</v>
+      </c>
+      <c r="B50" s="140"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="52">
+        <v>42659</v>
+      </c>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:11" s="55" customFormat="1">
-      <c r="A51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-    </row>
-    <row r="52" spans="1:11" s="55" customFormat="1">
-      <c r="A52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="A51" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="121"/>
+      <c r="D51" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="121"/>
+      <c r="F51" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="121"/>
+      <c r="H51" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="126"/>
+      <c r="J51" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A52" s="48">
+        <v>8</v>
+      </c>
+      <c r="B52" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="137"/>
+      <c r="D52" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="131"/>
+      <c r="F52" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="143"/>
+      <c r="H52" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="129"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="1:11" s="55" customFormat="1">
-      <c r="A53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
+      <c r="A53" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="138"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="123"/>
     </row>
     <row r="54" spans="1:11" s="55" customFormat="1">
-      <c r="A54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
+      <c r="A54" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="138"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="50"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="123"/>
     </row>
     <row r="55" spans="1:11" s="55" customFormat="1">
-      <c r="A55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
+      <c r="A55" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="138"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="115"/>
+      <c r="K55" s="123"/>
     </row>
     <row r="56" spans="1:11" s="55" customFormat="1">
-      <c r="A56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
+      <c r="A56" s="51">
+        <v>321</v>
+      </c>
+      <c r="B56" s="140"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="52">
+        <v>43324</v>
+      </c>
+      <c r="I56" s="52"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="124"/>
+    </row>
+    <row r="57" spans="1:11" s="55" customFormat="1">
+      <c r="A57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+    </row>
+    <row r="58" spans="1:11" s="55" customFormat="1">
+      <c r="A58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+    </row>
+    <row r="59" spans="1:11" s="55" customFormat="1">
+      <c r="A59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+    </row>
+    <row r="60" spans="1:11" s="55" customFormat="1">
+      <c r="A60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+    </row>
+    <row r="61" spans="1:11" s="55" customFormat="1">
+      <c r="A61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+    </row>
+    <row r="62" spans="1:11" s="55" customFormat="1">
+      <c r="A62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+    </row>
+    <row r="63" spans="1:11" s="55" customFormat="1">
+      <c r="A63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+    </row>
+    <row r="64" spans="1:11" s="55" customFormat="1">
+      <c r="A64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+    </row>
+    <row r="65" spans="1:11" s="55" customFormat="1">
+      <c r="A65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+    </row>
+    <row r="66" spans="1:11" s="55" customFormat="1">
+      <c r="A66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+    </row>
+    <row r="67" spans="1:11" s="55" customFormat="1">
+      <c r="A67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+    </row>
+    <row r="68" spans="1:11" s="55" customFormat="1">
+      <c r="A68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+    </row>
+    <row r="69" spans="1:11" s="55" customFormat="1">
+      <c r="A69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="68">
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:C56"/>
+    <mergeCell ref="D52:E56"/>
+    <mergeCell ref="F52:G56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B46:C50"/>
+    <mergeCell ref="D46:E50"/>
+    <mergeCell ref="F46:G50"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="B39:C43"/>
     <mergeCell ref="D39:E43"/>
     <mergeCell ref="F39:G43"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Operation Test" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$Y$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -180,6 +180,9 @@
     <t>Cpl. Date</t>
   </si>
   <si>
+    <t>Subtopic(abnormality)</t>
+  </si>
+  <si>
     <t>2.</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
     <t>Hiển thị được kết quả đăng kí tài khoản, đăng nhập tài khoản đó thành công</t>
   </si>
   <si>
-    <t>Hoang</t>
-  </si>
-  <si>
     <t>1.2-1</t>
   </si>
   <si>
@@ -234,6 +234,12 @@
     <t>3.2-1</t>
   </si>
   <si>
+    <t>3.3-1</t>
+  </si>
+  <si>
+    <t>3.4-1</t>
+  </si>
+  <si>
     <t>Phần mềm đặt khách sạn</t>
   </si>
   <si>
@@ -295,6 +301,27 @@
   </si>
   <si>
     <t>Đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Đăng nhập 3</t>
+  </si>
+  <si>
+    <t>1. Chèn câu lệnh SQL vào Username</t>
+  </si>
+  <si>
+    <t>9D3,3-1</t>
+  </si>
+  <si>
+    <t>Hiển thị hết bảng username trong database</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng facebook</t>
+  </si>
+  <si>
+    <t>1. Khách hàng đăng nhập bằng nick facebook</t>
+  </si>
+  <si>
+    <t>9D3,4-1</t>
   </si>
 </sst>
 </file>
@@ -467,7 +494,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +552,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +826,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -878,6 +917,9 @@
     <xf numFmtId="1" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,12 +1122,6 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,6 +1193,42 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1572,7 +1644,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="66"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="13"/>
       <c r="X2" s="14"/>
     </row>
@@ -1592,7 +1664,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1600,7 +1672,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="67"/>
+      <c r="V3" s="68"/>
       <c r="W3" s="18"/>
       <c r="X3" s="19"/>
     </row>
@@ -1659,13 +1731,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="117" t="s">
+      <c r="O6" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -1675,11 +1747,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -1688,7 +1760,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="31"/>
-      <c r="X8" s="64"/>
+      <c r="X8" s="65"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1">
       <c r="B9" s="30"/>
@@ -1696,12 +1768,12 @@
       <c r="D9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="75"/>
+      <c r="E9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="76"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="69"/>
+      <c r="H9" s="70"/>
       <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
@@ -1713,11 +1785,11 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="69"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="111" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="21"/>
@@ -1734,13 +1806,13 @@
       <c r="D11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="119">
         <f ca="1">TODAY()</f>
         <v>43451</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="69"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="70"/>
       <c r="L11" s="33" t="s">
         <v>6</v>
       </c>
@@ -1771,22 +1843,22 @@
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="60">
+      <c r="O12" s="61">
         <v>0</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="61">
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62">
         <v>10</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62">
+      <c r="R12" s="62"/>
+      <c r="S12" s="63">
         <v>1</v>
       </c>
-      <c r="T12" s="62"/>
-      <c r="U12" s="63">
+      <c r="T12" s="63"/>
+      <c r="U12" s="64">
         <v>11</v>
       </c>
-      <c r="V12" s="63"/>
+      <c r="V12" s="64"/>
       <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24">
@@ -1796,22 +1868,22 @@
       </c>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
-      <c r="O13" s="108">
+      <c r="O13" s="109">
         <v>0</v>
       </c>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108">
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109">
         <v>10</v>
       </c>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108">
+      <c r="R13" s="109"/>
+      <c r="S13" s="109">
         <v>1</v>
       </c>
-      <c r="T13" s="108"/>
-      <c r="U13" s="109">
+      <c r="T13" s="109"/>
+      <c r="U13" s="110">
         <v>11</v>
       </c>
-      <c r="V13" s="109"/>
+      <c r="V13" s="110"/>
       <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24">
@@ -1819,14 +1891,14 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
       <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24">
@@ -1834,21 +1906,21 @@
       <c r="D15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
       <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24">
@@ -1861,14 +1933,14 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="2:35">
@@ -1881,14 +1953,14 @@
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="2:35">
@@ -1901,14 +1973,14 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="2:35">
@@ -1918,7 +1990,7 @@
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="W19" s="71"/>
+      <c r="W19" s="72"/>
       <c r="X19" s="19"/>
     </row>
     <row r="20" spans="2:35">
@@ -1948,10 +2020,10 @@
       <c r="D22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="W22" s="17"/>
       <c r="X22" s="23"/>
     </row>
@@ -1962,7 +2034,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
-      <c r="W23" s="72"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="23"/>
     </row>
     <row r="24" spans="2:35" s="17" customFormat="1">
@@ -1972,20 +2044,20 @@
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
-      <c r="L24" s="110" t="s">
+      <c r="L24" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="70"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="71"/>
       <c r="X24" s="23"/>
     </row>
     <row r="25" spans="2:35" s="17" customFormat="1">
@@ -1994,18 +2066,18 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="70"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="71"/>
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="2:35" s="17" customFormat="1">
@@ -2014,58 +2086,58 @@
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="70"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="71"/>
       <c r="X26" s="23"/>
-      <c r="AB26" s="73"/>
+      <c r="AB26" s="74"/>
     </row>
     <row r="27" spans="2:35" s="17" customFormat="1">
       <c r="B27" s="22"/>
       <c r="D27" s="38"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="70"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="71"/>
       <c r="X27" s="23"/>
-      <c r="AB27" s="73"/>
+      <c r="AB27" s="74"/>
     </row>
     <row r="28" spans="2:35" s="17" customFormat="1">
       <c r="B28" s="22"/>
       <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="70"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="71"/>
       <c r="X28" s="23"/>
-      <c r="AB28" s="73"/>
+      <c r="AB28" s="74"/>
     </row>
     <row r="29" spans="2:35" s="17" customFormat="1">
       <c r="B29" s="22"/>
@@ -2075,34 +2147,34 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="70"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="71"/>
       <c r="X29" s="23"/>
     </row>
     <row r="30" spans="2:35" s="17" customFormat="1">
       <c r="B30" s="22"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="70"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="71"/>
       <c r="X30" s="23"/>
     </row>
     <row r="31" spans="2:35">
@@ -2118,18 +2190,18 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="70"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="71"/>
       <c r="X31" s="23"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -2154,18 +2226,18 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="70"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="71"/>
       <c r="X32" s="23"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
@@ -2188,18 +2260,18 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="71"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="72"/>
       <c r="X33" s="23"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
@@ -2238,7 +2310,7 @@
       <c r="W34" s="45"/>
       <c r="X34" s="23"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="73"/>
+      <c r="AB34" s="74"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -2515,10 +2587,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:K82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2530,159 +2602,159 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="55" customFormat="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:11" s="56" customFormat="1">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77" t="s">
+      <c r="B1" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="97">
+      <c r="I1" s="98">
         <v>10</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" s="55" customFormat="1">
-      <c r="A2" s="112" t="s">
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" s="56" customFormat="1">
+      <c r="A2" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="98">
+      <c r="I2" s="99">
         <v>1</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="K2" s="88"/>
+    </row>
+    <row r="3" spans="1:11" s="56" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="99">
-        <f>COUNTIF(H2:H798,"Untested")</f>
+      <c r="I3" s="100">
+        <f>COUNTIF(H2:H804,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="89" t="s">
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:11" s="56" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="89"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="98">
+      <c r="H4" s="83"/>
+      <c r="I4" s="99">
         <v>11</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-    </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="1:11" s="56" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:11" s="56" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="B7" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="113" t="s">
+      <c r="C8" s="115"/>
+      <c r="D8" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="113" t="s">
+      <c r="E8" s="115"/>
+      <c r="F8" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="120" t="s">
+      <c r="G8" s="115"/>
+      <c r="H8" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="116" t="s">
+      <c r="I8" s="122"/>
+      <c r="J8" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="47" t="s">
@@ -2693,217 +2765,217 @@
       <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="142" t="s">
+      <c r="C9" s="136"/>
+      <c r="D9" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="128" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="142"/>
+      <c r="H9" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="122"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="115" t="s">
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="123"/>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="123"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="115" t="s">
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="123"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1">
       <c r="A13" s="51">
         <v>111</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="52">
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="53">
         <v>43389</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="124"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="125"/>
     </row>
     <row r="14" spans="1:11" ht="10.5" customHeight="1">
       <c r="A14" s="48">
         <v>2</v>
       </c>
-      <c r="B14" s="136" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="142" t="s">
+      <c r="B14" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="143"/>
-      <c r="H14" s="128" t="s">
+      <c r="E14" s="130"/>
+      <c r="F14" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="142"/>
+      <c r="H14" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="129"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="48"/>
-      <c r="K14" s="122"/>
+      <c r="K14" s="123"/>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="115" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="123"/>
+      <c r="K15" s="124"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="48"/>
-      <c r="K16" s="123"/>
+      <c r="K16" s="124"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="115" t="s">
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="115"/>
-      <c r="K17" s="123"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="124"/>
     </row>
     <row r="18" spans="1:11" ht="10.5" customHeight="1">
       <c r="A18" s="51">
         <v>121</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="52">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="53">
         <v>43389</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="124"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="125"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="120" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="120" t="s">
+      <c r="E19" s="122"/>
+      <c r="F19" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="121"/>
-      <c r="H19" s="127" t="s">
+      <c r="G19" s="122"/>
+      <c r="H19" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="127"/>
-      <c r="J19" s="116" t="s">
+      <c r="I19" s="126"/>
+      <c r="J19" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K19" s="47" t="s">
@@ -2914,120 +2986,120 @@
       <c r="A20" s="48">
         <v>3</v>
       </c>
-      <c r="B20" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="130" t="s">
+      <c r="B20" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="136"/>
+      <c r="D20" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="130"/>
+      <c r="F20" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="128" t="s">
+      <c r="G20" s="142"/>
+      <c r="H20" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="129"/>
+      <c r="I20" s="128"/>
       <c r="J20" s="48"/>
-      <c r="K20" s="122"/>
+      <c r="K20" s="123"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="115" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="115" t="s">
+      <c r="I21" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="115" t="s">
+      <c r="J21" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="123"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
       <c r="A22" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="48"/>
-      <c r="K22" s="123"/>
+      <c r="K22" s="124"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="115" t="s">
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="115"/>
-      <c r="K23" s="123"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="124"/>
     </row>
     <row r="24" spans="1:11" ht="10.5" customHeight="1">
       <c r="A24" s="51">
         <v>131</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="52">
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="53">
         <v>43389</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="124"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="125"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="120" t="s">
+      <c r="C25" s="122"/>
+      <c r="D25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="120" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="121"/>
-      <c r="H25" s="127" t="s">
+      <c r="G25" s="122"/>
+      <c r="H25" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="116" t="s">
+      <c r="I25" s="126"/>
+      <c r="J25" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="47" t="s">
@@ -3038,137 +3110,137 @@
       <c r="A26" s="48">
         <v>4</v>
       </c>
-      <c r="B26" s="136" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="130" t="s">
+      <c r="B26" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="143"/>
-      <c r="H26" s="128" t="s">
+      <c r="C26" s="136"/>
+      <c r="D26" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="130"/>
+      <c r="F26" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="142"/>
+      <c r="H26" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="129"/>
+      <c r="I26" s="128"/>
       <c r="J26" s="48"/>
-      <c r="K26" s="122"/>
+      <c r="K26" s="123"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="115" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="115" t="s">
+      <c r="I27" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="115" t="s">
+      <c r="J27" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="123"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="28" spans="1:11" ht="10.5" customHeight="1">
       <c r="A28" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="123"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="115" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="115" t="s">
+      <c r="I29" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="123"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="124"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
       <c r="A30" s="51">
         <v>141</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="52">
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="53">
         <v>43389</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="124"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A31" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="148" t="s">
+      <c r="A31" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
     </row>
     <row r="32" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="120" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="120" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="121"/>
-      <c r="H32" s="127" t="s">
+      <c r="G32" s="122"/>
+      <c r="H32" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="127"/>
-      <c r="J32" s="116" t="s">
+      <c r="I32" s="126"/>
+      <c r="J32" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="47" t="s">
@@ -3179,583 +3251,819 @@
       <c r="A33" s="48">
         <v>5</v>
       </c>
-      <c r="B33" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="131"/>
-      <c r="F33" s="142" t="s">
+      <c r="B33" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="143"/>
-      <c r="H33" s="128" t="s">
+      <c r="C33" s="136"/>
+      <c r="D33" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="130"/>
+      <c r="F33" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="142"/>
+      <c r="H33" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="129"/>
+      <c r="I33" s="128"/>
       <c r="J33" s="48"/>
-      <c r="K33" s="122"/>
+      <c r="K33" s="123"/>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="115" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="115" t="s">
+      <c r="I34" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="115" t="s">
+      <c r="J34" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="123"/>
+      <c r="K34" s="124"/>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
       <c r="H35" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="48"/>
-      <c r="K35" s="123"/>
+      <c r="K35" s="124"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="138"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="115" t="s">
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="115" t="s">
+      <c r="I36" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="123"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="124"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
       <c r="A37" s="51">
         <v>211</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="52">
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="53">
         <v>43389</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="124"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="125"/>
     </row>
     <row r="38" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="120" t="s">
+      <c r="C38" s="122"/>
+      <c r="D38" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="121"/>
-      <c r="F38" s="120" t="s">
+      <c r="E38" s="122"/>
+      <c r="F38" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="121"/>
-      <c r="H38" s="127" t="s">
+      <c r="G38" s="122"/>
+      <c r="H38" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="127"/>
-      <c r="J38" s="116" t="s">
+      <c r="I38" s="126"/>
+      <c r="J38" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="55" customFormat="1">
+    <row r="39" spans="1:11" s="56" customFormat="1">
       <c r="A39" s="48">
         <v>6</v>
       </c>
-      <c r="B39" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="131"/>
-      <c r="F39" s="142" t="s">
+      <c r="B39" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="136"/>
+      <c r="D39" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="143"/>
-      <c r="H39" s="128" t="s">
+      <c r="G39" s="142"/>
+      <c r="H39" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="129"/>
+      <c r="I39" s="128"/>
       <c r="J39" s="48"/>
-      <c r="K39" s="122"/>
-    </row>
-    <row r="40" spans="1:11" s="55" customFormat="1">
-      <c r="A40" s="115" t="s">
+      <c r="K39" s="123"/>
+    </row>
+    <row r="40" spans="1:11" s="56" customFormat="1">
+      <c r="A40" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="115" t="s">
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="115" t="s">
+      <c r="I40" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="115" t="s">
+      <c r="J40" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="123"/>
-    </row>
-    <row r="41" spans="1:11" s="55" customFormat="1">
+      <c r="K40" s="124"/>
+    </row>
+    <row r="41" spans="1:11" s="56" customFormat="1">
       <c r="A41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="145"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="144"/>
       <c r="H41" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="48"/>
-      <c r="K41" s="123"/>
-    </row>
-    <row r="42" spans="1:11" s="55" customFormat="1">
-      <c r="A42" s="115" t="s">
+      <c r="K41" s="124"/>
+    </row>
+    <row r="42" spans="1:11" s="56" customFormat="1">
+      <c r="A42" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="115" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="115" t="s">
+      <c r="I42" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="115"/>
-      <c r="K42" s="123"/>
-    </row>
-    <row r="43" spans="1:11" s="55" customFormat="1">
+      <c r="J42" s="116"/>
+      <c r="K42" s="124"/>
+    </row>
+    <row r="43" spans="1:11" s="56" customFormat="1">
       <c r="A43" s="51">
         <v>211</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="52">
+      <c r="B43" s="139"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="53">
         <v>43389</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="124"/>
-    </row>
-    <row r="44" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="125"/>
+    </row>
+    <row r="44" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A44" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="148" t="s">
+      <c r="B44" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="150"/>
-    </row>
-    <row r="45" spans="1:11" s="55" customFormat="1">
-      <c r="A45" s="115" t="s">
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="149"/>
+    </row>
+    <row r="45" spans="1:11" s="56" customFormat="1">
+      <c r="A45" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="120" t="s">
+      <c r="C45" s="122"/>
+      <c r="D45" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="121"/>
-      <c r="F45" s="120" t="s">
+      <c r="E45" s="122"/>
+      <c r="F45" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="121"/>
-      <c r="H45" s="120" t="s">
+      <c r="G45" s="122"/>
+      <c r="H45" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="121"/>
-      <c r="J45" s="116" t="s">
+      <c r="I45" s="122"/>
+      <c r="J45" s="117" t="s">
         <v>38</v>
       </c>
       <c r="K45" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
+    <row r="46" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
       <c r="A46" s="48">
         <v>7</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="131"/>
-      <c r="F46" s="142" t="s">
+      <c r="C46" s="136"/>
+      <c r="D46" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="130"/>
+      <c r="F46" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="143"/>
-      <c r="H46" s="128" t="s">
+      <c r="G46" s="142"/>
+      <c r="H46" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="129"/>
+      <c r="I46" s="128"/>
       <c r="J46" s="48"/>
-      <c r="K46" s="122"/>
-    </row>
-    <row r="47" spans="1:11" s="55" customFormat="1">
-      <c r="A47" s="115" t="s">
+      <c r="K46" s="123"/>
+    </row>
+    <row r="47" spans="1:11" s="56" customFormat="1">
+      <c r="A47" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="115" t="s">
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="115" t="s">
+      <c r="I47" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="115" t="s">
+      <c r="J47" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="K47" s="123"/>
-    </row>
-    <row r="48" spans="1:11" s="55" customFormat="1">
+      <c r="K47" s="124"/>
+    </row>
+    <row r="48" spans="1:11" s="56" customFormat="1">
       <c r="A48" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="145"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="144"/>
       <c r="H48" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="123"/>
-    </row>
-    <row r="49" spans="1:11" s="55" customFormat="1">
-      <c r="A49" s="115" t="s">
+      <c r="K48" s="124"/>
+    </row>
+    <row r="49" spans="1:11" s="56" customFormat="1">
+      <c r="A49" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="115" t="s">
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="115" t="s">
+      <c r="I49" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="115"/>
-      <c r="K49" s="123"/>
-    </row>
-    <row r="50" spans="1:11" s="55" customFormat="1">
+      <c r="J49" s="116"/>
+      <c r="K49" s="124"/>
+    </row>
+    <row r="50" spans="1:11" s="56" customFormat="1">
       <c r="A50" s="51">
         <v>311</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="52">
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="53">
         <v>42659</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="124"/>
-    </row>
-    <row r="51" spans="1:11" s="55" customFormat="1">
-      <c r="A51" s="115" t="s">
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="125"/>
+    </row>
+    <row r="51" spans="1:11" s="56" customFormat="1">
+      <c r="A51" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="120" t="s">
+      <c r="C51" s="157"/>
+      <c r="D51" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="120" t="s">
+      <c r="E51" s="157"/>
+      <c r="F51" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="121"/>
-      <c r="H51" s="125" t="s">
+      <c r="G51" s="157"/>
+      <c r="H51" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="126"/>
-      <c r="J51" s="116" t="s">
+      <c r="I51" s="159"/>
+      <c r="J51" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="47" t="s">
+      <c r="K51" s="161" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="55" customFormat="1" ht="10.5" customHeight="1">
+    <row r="52" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
       <c r="A52" s="48">
         <v>8</v>
       </c>
-      <c r="B52" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="130" t="s">
+      <c r="B52" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="131"/>
-      <c r="F52" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="143"/>
-      <c r="H52" s="128" t="s">
+      <c r="C52" s="136"/>
+      <c r="D52" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="130"/>
+      <c r="F52" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="142"/>
+      <c r="H52" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="129"/>
+      <c r="I52" s="128"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="122"/>
-    </row>
-    <row r="53" spans="1:11" s="55" customFormat="1">
-      <c r="A53" s="115" t="s">
+      <c r="K52" s="123"/>
+    </row>
+    <row r="53" spans="1:11" s="56" customFormat="1">
+      <c r="A53" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="115" t="s">
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="115" t="s">
+      <c r="I53" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="K53" s="123"/>
-    </row>
-    <row r="54" spans="1:11" s="55" customFormat="1">
+      <c r="K53" s="124"/>
+    </row>
+    <row r="54" spans="1:11" s="56" customFormat="1">
       <c r="A54" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="145"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="144"/>
       <c r="H54" s="50" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="48"/>
-      <c r="K54" s="123"/>
-    </row>
-    <row r="55" spans="1:11" s="55" customFormat="1">
-      <c r="A55" s="115" t="s">
+      <c r="K54" s="124"/>
+    </row>
+    <row r="55" spans="1:11" s="56" customFormat="1">
+      <c r="A55" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="115" t="s">
+      <c r="B55" s="137"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="I55" s="115" t="s">
+      <c r="I55" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="J55" s="115"/>
-      <c r="K55" s="123"/>
-    </row>
-    <row r="56" spans="1:11" s="55" customFormat="1">
+      <c r="J55" s="155"/>
+      <c r="K55" s="124"/>
+    </row>
+    <row r="56" spans="1:11" s="56" customFormat="1">
       <c r="A56" s="51">
         <v>321</v>
       </c>
-      <c r="B56" s="140"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="52">
+      <c r="B56" s="139"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="53">
         <v>43324</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="124"/>
-    </row>
-    <row r="57" spans="1:11" s="55" customFormat="1">
-      <c r="A57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-    </row>
-    <row r="58" spans="1:11" s="55" customFormat="1">
-      <c r="A58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-    </row>
-    <row r="59" spans="1:11" s="55" customFormat="1">
-      <c r="A59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-    </row>
-    <row r="60" spans="1:11" s="55" customFormat="1">
-      <c r="A60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-    </row>
-    <row r="61" spans="1:11" s="55" customFormat="1">
-      <c r="A61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-    </row>
-    <row r="62" spans="1:11" s="55" customFormat="1">
-      <c r="A62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-    </row>
-    <row r="63" spans="1:11" s="55" customFormat="1">
-      <c r="A63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-    </row>
-    <row r="64" spans="1:11" s="55" customFormat="1">
-      <c r="A64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-    </row>
-    <row r="65" spans="1:11" s="55" customFormat="1">
-      <c r="A65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-    </row>
-    <row r="66" spans="1:11" s="55" customFormat="1">
-      <c r="A66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-    </row>
-    <row r="67" spans="1:11" s="55" customFormat="1">
-      <c r="A67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-    </row>
-    <row r="68" spans="1:11" s="55" customFormat="1">
-      <c r="A68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-    </row>
-    <row r="69" spans="1:11" s="55" customFormat="1">
-      <c r="A69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="125"/>
+    </row>
+    <row r="57" spans="1:11" s="56" customFormat="1">
+      <c r="A57" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="152"/>
+      <c r="D57" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="152"/>
+      <c r="F57" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="152"/>
+      <c r="H57" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="152"/>
+      <c r="J57" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A58" s="48">
+        <v>9</v>
+      </c>
+      <c r="B58" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="136"/>
+      <c r="D58" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="130"/>
+      <c r="F58" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="142"/>
+      <c r="H58" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="128"/>
+      <c r="J58" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="123"/>
+    </row>
+    <row r="59" spans="1:11" s="56" customFormat="1">
+      <c r="A59" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="124"/>
+    </row>
+    <row r="60" spans="1:11" s="56" customFormat="1">
+      <c r="A60" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="124"/>
+    </row>
+    <row r="61" spans="1:11" s="56" customFormat="1">
+      <c r="A61" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="150"/>
+      <c r="K61" s="124"/>
+    </row>
+    <row r="62" spans="1:11" s="56" customFormat="1">
+      <c r="A62" s="51">
+        <v>331</v>
+      </c>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="53">
+        <v>43389</v>
+      </c>
+      <c r="I62" s="53">
+        <v>43390</v>
+      </c>
+      <c r="J62" s="48"/>
+      <c r="K62" s="124"/>
+    </row>
+    <row r="63" spans="1:11" s="56" customFormat="1">
+      <c r="A63" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="152"/>
+      <c r="D63" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="152"/>
+      <c r="F63" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="152"/>
+      <c r="H63" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="152"/>
+      <c r="J63" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A64" s="48">
+        <v>10</v>
+      </c>
+      <c r="B64" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="136"/>
+      <c r="D64" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="130"/>
+      <c r="F64" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="142"/>
+      <c r="H64" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="128"/>
+      <c r="J64" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" s="123"/>
+    </row>
+    <row r="65" spans="1:11" s="56" customFormat="1">
+      <c r="A65" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="124"/>
+    </row>
+    <row r="66" spans="1:11" s="56" customFormat="1">
+      <c r="A66" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="48"/>
+      <c r="K66" s="124"/>
+    </row>
+    <row r="67" spans="1:11" s="56" customFormat="1">
+      <c r="A67" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="150"/>
+      <c r="K67" s="124"/>
+    </row>
+    <row r="68" spans="1:11" s="56" customFormat="1">
+      <c r="A68" s="51">
+        <v>341</v>
+      </c>
+      <c r="B68" s="139"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="53">
+        <v>43389</v>
+      </c>
+      <c r="I68" s="53">
+        <v>43390</v>
+      </c>
+      <c r="J68" s="48"/>
+      <c r="K68" s="124"/>
+    </row>
+    <row r="69" spans="1:11" s="56" customFormat="1">
+      <c r="A69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+    </row>
+    <row r="70" spans="1:11" s="56" customFormat="1">
+      <c r="A70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+    </row>
+    <row r="71" spans="1:11" s="56" customFormat="1">
+      <c r="A71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+    </row>
+    <row r="72" spans="1:11" s="56" customFormat="1">
+      <c r="A72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+    </row>
+    <row r="73" spans="1:11" s="56" customFormat="1">
+      <c r="A73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+    </row>
+    <row r="74" spans="1:11" s="56" customFormat="1">
+      <c r="A74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+    </row>
+    <row r="75" spans="1:11" s="56" customFormat="1">
+      <c r="A75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="86">
     <mergeCell ref="B44:K44"/>
+    <mergeCell ref="K64:K68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:C68"/>
+    <mergeCell ref="D64:E68"/>
+    <mergeCell ref="F64:G68"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B58:C62"/>
+    <mergeCell ref="D58:E62"/>
+    <mergeCell ref="F58:G62"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="K58:K62"/>
     <mergeCell ref="K52:K56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -2589,8 +2589,8 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:C68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -3603,7 +3603,7 @@
       <c r="F50" s="145"/>
       <c r="G50" s="146"/>
       <c r="H50" s="53">
-        <v>42659</v>
+        <v>43389</v>
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
@@ -3727,7 +3727,7 @@
       <c r="F56" s="145"/>
       <c r="G56" s="146"/>
       <c r="H56" s="53">
-        <v>43324</v>
+        <v>43389</v>
       </c>
       <c r="I56" s="53"/>
       <c r="J56" s="54"/>
@@ -4148,5 +4148,8 @@
     <oddHeader>&amp;LTest Case Table&amp;CBig Point: &amp;A</oddHeader>
     <oddFooter>&amp;LAI&amp;&amp;T-ART&amp;CLiveSpark Project&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="43" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -207,9 +207,6 @@
     <t>1.4-1</t>
   </si>
   <si>
-    <t>Đặt phòng</t>
-  </si>
-  <si>
     <t>2.1-1</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>Chức năng của khách sạn</t>
   </si>
   <si>
     <t>Đăng nhập</t>
@@ -1769,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="76"/>
       <c r="G9" s="28"/>
@@ -2589,8 +2583,8 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2607,7 +2601,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
@@ -2620,7 +2614,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" s="80" t="s">
         <v>22</v>
@@ -2643,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="87" t="s">
         <v>26</v>
@@ -2686,7 +2680,7 @@
       </c>
       <c r="H4" s="83"/>
       <c r="I4" s="99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="88"/>
@@ -2816,7 +2810,7 @@
       <c r="F11" s="143"/>
       <c r="G11" s="144"/>
       <c r="H11" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
@@ -2863,15 +2857,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="135" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="136"/>
       <c r="D14" s="129" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="130"/>
       <c r="F14" s="141" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="142"/>
       <c r="H14" s="127" t="s">
@@ -2913,7 +2907,7 @@
       <c r="F16" s="143"/>
       <c r="G16" s="144"/>
       <c r="H16" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16" s="50"/>
       <c r="J16" s="48"/>
@@ -2987,15 +2981,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="135" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="136"/>
       <c r="D20" s="129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="130"/>
       <c r="F20" s="141" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="142"/>
       <c r="H20" s="127" t="s">
@@ -3037,7 +3031,7 @@
       <c r="F22" s="143"/>
       <c r="G22" s="144"/>
       <c r="H22" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="50"/>
       <c r="J22" s="48"/>
@@ -3111,15 +3105,15 @@
         <v>4</v>
       </c>
       <c r="B26" s="135" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="130"/>
       <c r="F26" s="141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G26" s="142"/>
       <c r="H26" s="127" t="s">
@@ -3161,7 +3155,7 @@
       <c r="F28" s="143"/>
       <c r="G28" s="144"/>
       <c r="H28" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="48"/>
@@ -3208,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="147" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C31" s="148"/>
       <c r="D31" s="148"/>
@@ -3252,15 +3246,15 @@
         <v>5</v>
       </c>
       <c r="B33" s="135" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="136"/>
       <c r="D33" s="129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="130"/>
       <c r="F33" s="141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="142"/>
       <c r="H33" s="127" t="s">
@@ -3293,7 +3287,7 @@
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
@@ -3302,7 +3296,7 @@
       <c r="F35" s="143"/>
       <c r="G35" s="144"/>
       <c r="H35" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="48"/>
@@ -3376,11 +3370,11 @@
         <v>6</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="136"/>
       <c r="D39" s="129" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="130"/>
       <c r="F39" s="141" t="s">
@@ -3417,7 +3411,7 @@
     </row>
     <row r="41" spans="1:11" s="56" customFormat="1">
       <c r="A41" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="137"/>
       <c r="C41" s="138"/>
@@ -3426,7 +3420,7 @@
       <c r="F41" s="143"/>
       <c r="G41" s="144"/>
       <c r="H41" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="48"/>
@@ -3470,10 +3464,10 @@
     </row>
     <row r="44" spans="1:11" s="56" customFormat="1" ht="10.5" customHeight="1">
       <c r="A44" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="147" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" s="147" t="s">
-        <v>62</v>
       </c>
       <c r="C44" s="148"/>
       <c r="D44" s="148"/>
@@ -3517,15 +3511,15 @@
         <v>7</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="136"/>
       <c r="D46" s="129" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E46" s="130"/>
       <c r="F46" s="141" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G46" s="142"/>
       <c r="H46" s="127" t="s">
@@ -3558,7 +3552,7 @@
     </row>
     <row r="48" spans="1:11" s="56" customFormat="1">
       <c r="A48" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="137"/>
       <c r="C48" s="138"/>
@@ -3567,7 +3561,7 @@
       <c r="F48" s="143"/>
       <c r="G48" s="144"/>
       <c r="H48" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I48" s="50"/>
       <c r="J48" s="48"/>
@@ -3641,15 +3635,15 @@
         <v>8</v>
       </c>
       <c r="B52" s="135" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="136"/>
       <c r="D52" s="129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E52" s="130"/>
       <c r="F52" s="141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="142"/>
       <c r="H52" s="127" t="s">
@@ -3682,7 +3676,7 @@
     </row>
     <row r="54" spans="1:11" s="56" customFormat="1">
       <c r="A54" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="137"/>
       <c r="C54" s="138"/>
@@ -3691,7 +3685,7 @@
       <c r="F54" s="143"/>
       <c r="G54" s="144"/>
       <c r="H54" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="48"/>
@@ -3765,15 +3759,15 @@
         <v>9</v>
       </c>
       <c r="B58" s="135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="136"/>
       <c r="D58" s="129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" s="130"/>
       <c r="F58" s="141" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" s="142"/>
       <c r="H58" s="127" t="s">
@@ -3781,7 +3775,7 @@
       </c>
       <c r="I58" s="128"/>
       <c r="J58" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K58" s="123"/>
     </row>
@@ -3808,7 +3802,7 @@
     </row>
     <row r="60" spans="1:11" s="56" customFormat="1">
       <c r="A60" s="49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="137"/>
       <c r="C60" s="138"/>
@@ -3817,10 +3811,10 @@
       <c r="F60" s="143"/>
       <c r="G60" s="144"/>
       <c r="H60" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I60" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J60" s="48"/>
       <c r="K60" s="124"/>
@@ -3895,15 +3889,15 @@
         <v>10</v>
       </c>
       <c r="B64" s="135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" s="136"/>
       <c r="D64" s="129" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="130"/>
       <c r="F64" s="141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G64" s="142"/>
       <c r="H64" s="127" t="s">
@@ -3911,7 +3905,7 @@
       </c>
       <c r="I64" s="128"/>
       <c r="J64" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K64" s="123"/>
     </row>
@@ -3938,7 +3932,7 @@
     </row>
     <row r="66" spans="1:11" s="56" customFormat="1">
       <c r="A66" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="137"/>
       <c r="C66" s="138"/>
@@ -3947,10 +3941,10 @@
       <c r="F66" s="143"/>
       <c r="G66" s="144"/>
       <c r="H66" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I66" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J66" s="48"/>
       <c r="K66" s="124"/>
